--- a/source/PART 01/CHAPTER 02/테이블-표 분할.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-표 분할.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\PART 01\CHAPTER 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51671F54-4E4F-430B-A1B2-798CBD228812}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F474FB-9EA0-4EEF-B1DE-CD886DCDC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10530" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="sample4" sheetId="4" r:id="rId4"/>
     <sheet name="sample5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="68">
   <si>
     <t>고객</t>
   </si>
@@ -63,14 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>입금</t>
   </si>
   <si>
@@ -255,6 +247,9 @@
   <si>
     <t>N-0718</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -371,11 +366,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,65 +724,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+      <c r="F2" s="11">
+        <v>2998800</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -792,26 +800,25 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3">
-        <v>1176000</v>
+        <v>17800</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="11">
-        <v>2998800</v>
+        <v>160200</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -819,26 +826,25 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
-        <v>17800</v>
+        <v>3500</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F4" s="11">
-        <v>160200</v>
+        <v>7000</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -846,26 +852,25 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
-        <v>3500</v>
+        <v>79800</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="11">
-        <v>7000</v>
+        <v>79800</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -873,80 +878,77 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3">
-        <v>79800</v>
+        <v>79500</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="11">
-        <v>79800</v>
+        <v>159000</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>511200</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3">
-        <v>79500</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>159000</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D8" s="3">
+        <v>597900</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1704015</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3">
-        <v>127800</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11">
-        <v>511200</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -954,26 +956,25 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
-        <v>597900</v>
+        <v>16800</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="11">
-        <v>1704015</v>
+        <v>84000</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -981,26 +982,25 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3">
-        <v>16800</v>
+        <v>161900</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11">
-        <v>84000</v>
+        <v>1384245</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1011,21 +1011,22 @@
         <v>58</v>
       </c>
       <c r="D11" s="3">
-        <v>161900</v>
+        <v>96900</v>
       </c>
       <c r="E11" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" s="11">
-        <v>1384245</v>
+        <v>581400</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1033,24 +1034,25 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3">
-        <v>96900</v>
+        <v>5400</v>
       </c>
       <c r="E12" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="11">
-        <v>581400</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1058,26 +1060,25 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
-        <v>5400</v>
+        <v>20700</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="11">
-        <v>16200</v>
+        <v>41400</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1085,24 +1086,25 @@
         <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
-        <v>20700</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F14" s="11">
-        <v>41400</v>
+        <v>25600</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1110,63 +1112,25 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3">
-        <v>3200</v>
+        <v>48400</v>
       </c>
       <c r="E15" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11">
-        <v>25600</v>
+        <v>484000</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3">
-        <v>48400</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="11">
-        <v>484000</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -1184,18 +1148,18 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1237,13 +1201,13 @@
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3">
         <v>1176000</v>
@@ -1255,7 +1219,7 @@
         <v>2998800</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>9</v>
@@ -1264,13 +1228,13 @@
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3">
         <v>17800</v>
@@ -1282,7 +1246,7 @@
         <v>160200</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>9</v>
@@ -1291,13 +1255,13 @@
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3">
         <v>3500</v>
@@ -1309,7 +1273,7 @@
         <v>7000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>9</v>
@@ -1318,13 +1282,13 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3">
         <v>79800</v>
@@ -1336,7 +1300,7 @@
         <v>79800</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>9</v>
@@ -1345,13 +1309,13 @@
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3">
         <v>79500</v>
@@ -1363,7 +1327,7 @@
         <v>159000</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8">
         <v>100000</v>
@@ -1374,13 +1338,13 @@
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3">
         <v>127800</v>
@@ -1392,7 +1356,7 @@
         <v>511200</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
@@ -1401,13 +1365,13 @@
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <v>597900</v>
@@ -1419,7 +1383,7 @@
         <v>1704015</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8">
         <v>1500000</v>
@@ -1430,13 +1394,13 @@
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3">
         <v>16800</v>
@@ -1448,7 +1412,7 @@
         <v>84000</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>9</v>
@@ -1457,13 +1421,13 @@
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3">
         <v>161900</v>
@@ -1475,20 +1439,20 @@
         <v>1384245</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>96900</v>
@@ -1500,20 +1464,20 @@
         <v>581400</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3">
         <v>5400</v>
@@ -1525,7 +1489,7 @@
         <v>16200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>9</v>
@@ -1534,13 +1498,13 @@
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3">
         <v>20700</v>
@@ -1552,20 +1516,20 @@
         <v>41400</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <v>3200</v>
@@ -1577,7 +1541,7 @@
         <v>25600</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
@@ -1586,13 +1550,13 @@
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3">
         <v>48400</v>
@@ -1604,7 +1568,7 @@
         <v>484000</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>9</v>
@@ -1639,17 +1603,17 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1675,13 +1639,13 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>1176000</v>
@@ -1693,21 +1657,21 @@
         <v>2998800</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3">
         <v>17800</v>
@@ -1719,21 +1683,21 @@
         <v>160200</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>3500</v>
@@ -1745,21 +1709,21 @@
         <v>7000</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
         <v>79800</v>
@@ -1771,21 +1735,21 @@
         <v>79800</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3">
         <v>79500</v>
@@ -1797,21 +1761,21 @@
         <v>159000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3">
         <v>127800</v>
@@ -1823,21 +1787,21 @@
         <v>511200</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>597900</v>
@@ -1849,21 +1813,21 @@
         <v>1704015</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>16800</v>
@@ -1875,21 +1839,21 @@
         <v>84000</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3">
         <v>161900</v>
@@ -1901,19 +1865,19 @@
         <v>1384245</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3">
         <v>96900</v>
@@ -1925,19 +1889,19 @@
         <v>581400</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3">
         <v>5400</v>
@@ -1949,21 +1913,21 @@
         <v>16200</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
         <v>20700</v>
@@ -1975,19 +1939,19 @@
         <v>41400</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
         <v>3200</v>
@@ -1999,21 +1963,21 @@
         <v>25600</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3">
         <v>48400</v>
@@ -2025,10 +1989,10 @@
         <v>484000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2049,16 +2013,16 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2081,13 +2045,13 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>1176000</v>
@@ -2099,18 +2063,18 @@
         <v>2998800</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3">
         <v>17800</v>
@@ -2122,18 +2086,18 @@
         <v>160200</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>3500</v>
@@ -2145,18 +2109,18 @@
         <v>7000</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
         <v>79800</v>
@@ -2168,18 +2132,18 @@
         <v>79800</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3">
         <v>79500</v>
@@ -2191,18 +2155,18 @@
         <v>159000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3">
         <v>127800</v>
@@ -2214,18 +2178,18 @@
         <v>511200</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>597900</v>
@@ -2237,18 +2201,18 @@
         <v>1704015</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>16800</v>
@@ -2260,18 +2224,18 @@
         <v>84000</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3">
         <v>161900</v>
@@ -2283,18 +2247,18 @@
         <v>1384245</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3">
         <v>96900</v>
@@ -2306,18 +2270,18 @@
         <v>581400</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3">
         <v>5400</v>
@@ -2329,18 +2293,18 @@
         <v>16200</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
         <v>20700</v>
@@ -2352,18 +2316,18 @@
         <v>41400</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
         <v>3200</v>
@@ -2375,18 +2339,18 @@
         <v>25600</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3">
         <v>48400</v>
@@ -2398,7 +2362,7 @@
         <v>484000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2419,26 +2383,26 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11">
         <v>2998800</v>
@@ -2446,10 +2410,10 @@
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11">
         <v>160200</v>
@@ -2457,10 +2421,10 @@
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11">
         <v>7000</v>
@@ -2468,10 +2432,10 @@
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="11">
         <v>79800</v>
@@ -2479,10 +2443,10 @@
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10">
         <v>100000</v>
@@ -2490,10 +2454,10 @@
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10">
         <v>59000</v>
@@ -2501,10 +2465,10 @@
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="11">
         <v>511200</v>
@@ -2512,10 +2476,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10">
         <v>1500000</v>
@@ -2523,10 +2487,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10">
         <v>204015</v>
@@ -2534,10 +2498,10 @@
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11">
         <v>84000</v>
@@ -2545,10 +2509,10 @@
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11">
         <v>16200</v>
@@ -2556,10 +2520,10 @@
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11">
         <v>25600</v>
@@ -2567,10 +2531,10 @@
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11">
         <v>484000</v>
